--- a/3.Dictionnaire de données/Configuration - إعدادات.xlsx
+++ b/3.Dictionnaire de données/Configuration - إعدادات.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>معلومات أخرى عن المستوى الدراسي</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>LocalizableData</t>
+  </si>
+  <si>
+    <t>SingularName</t>
+  </si>
+  <si>
+    <t>PluralName</t>
   </si>
 </sst>
 </file>
@@ -267,17 +273,20 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -312,16 +321,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="thin">
           <color theme="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="medium">
           <color theme="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -351,9 +360,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -368,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau8" displayName="Tableau8" ref="A4:D8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau8" displayName="Tableau8" ref="A4:D8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A4:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
@@ -387,14 +393,14 @@
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Anglais"/>
     <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe" dataDxfId="3"/>
+    <tableColumn id="4" name="Arabe" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau7" displayName="Tableau7" ref="A1:D4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau7" displayName="Tableau7" ref="A1:D4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:D4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
@@ -413,7 +419,7 @@
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Anglais"/>
     <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe" dataDxfId="7"/>
+    <tableColumn id="4" name="Arabe" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,7 +715,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +802,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +826,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -843,7 +849,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
